--- a/testdata/xlsx/point.xlsx
+++ b/testdata/xlsx/point.xlsx
@@ -83,8 +83,6 @@
 </row>
     <row r="4">
 </row>
-    <row r="5">
-</row>
   </sheetData>
 </worksheet>
 </file>